--- a/gun/Can com map_gun.xlsx
+++ b/gun/Can com map_gun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="11947" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="11947" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="69">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="69">
+  <x:si>
+    <x:t>Trigger open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trigger single</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trigger status</x:t>
+  </x:si>
   <x:si>
     <x:r>
       <x:t>0b</x:t>
@@ -53,6 +62,9 @@
     <x:t>ready degree</x:t>
   </x:si>
   <x:si>
+    <x:t>Trigger Ready</x:t>
+  </x:si>
+  <x:si>
     <x:t>읽기</x:t>
   </x:si>
   <x:si>
@@ -113,34 +125,22 @@
     <x:t>single time</x:t>
   </x:si>
   <x:si>
-    <x:t>data_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Servo off</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Servo open</x:t>
-  </x:si>
-  <x:si>
     <x:t>auto add</x:t>
   </x:si>
   <x:si>
     <x:t>on degree</x:t>
   </x:si>
   <x:si>
-    <x:t>Servo on</x:t>
-  </x:si>
-  <x:si>
     <x:t>auto time</x:t>
   </x:si>
   <x:si>
     <x:t>uint8_t num</x:t>
   </x:si>
   <x:si>
-    <x:t>Servo single</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Servo status</x:t>
+    <x:t>0x40+data_demen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trigger on</x:t>
   </x:si>
   <x:si>
     <x:t>byte[4]</x:t>
@@ -578,7 +578,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="47">
+  <x:cellXfs count="58">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -848,6 +848,79 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1506,8 +1579,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A2:O55"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A31" activeCellId="0" sqref="A31:A31"/>
+    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G25" activeCellId="0" sqref="G25:G25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -1522,7 +1595,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:9" ht="16.75">
       <x:c r="A2" s="32" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="33"/>
       <x:c r="C2" s="33"/>
@@ -1533,7 +1606,7 @@
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
         <x:v>40</x:v>
@@ -1548,13 +1621,13 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="7" t="s">
         <x:v>35</x:v>
@@ -1568,13 +1641,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D5" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G5" s="13"/>
       <x:c r="H5" s="13"/>
@@ -1582,13 +1655,13 @@
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
         <x:v>40</x:v>
@@ -1596,7 +1669,7 @@
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B7" s="6" t="s">
         <x:v>63</x:v>
@@ -1620,14 +1693,14 @@
     </x:row>
     <x:row r="10" spans="2:15">
       <x:c r="B10" s="42" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="42"/>
       <x:c r="D10" s="42"/>
       <x:c r="E10" s="42"/>
       <x:c r="F10" s="42"/>
       <x:c r="G10" s="42" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="42"/>
       <x:c r="I10" s="42"/>
@@ -1640,7 +1713,7 @@
     </x:row>
     <x:row r="11" spans="1:15" ht="17.5" customHeight="1">
       <x:c r="A11" s="43" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="42"/>
       <x:c r="C11" s="42"/>
@@ -1659,7 +1732,7 @@
     </x:row>
     <x:row r="12" spans="1:15" ht="16.75">
       <x:c r="A12" s="39" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="40"/>
       <x:c r="C12" s="40"/>
@@ -1678,7 +1751,7 @@
     </x:row>
     <x:row r="13" spans="1:15">
       <x:c r="A13" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
         <x:v>45</x:v>
@@ -1717,7 +1790,7 @@
     </x:row>
     <x:row r="14" spans="1:15">
       <x:c r="A14" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
         <x:v>44</x:v>
@@ -1762,32 +1835,22 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C15" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D15" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E15" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G15" s="17" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H15" s="17" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I15" s="9" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J15" s="9" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K15" s="10" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G15" s="48"/>
+      <x:c r="H15" s="48"/>
+      <x:c r="I15" s="48"/>
+      <x:c r="J15" s="48"/>
+      <x:c r="K15" s="49"/>
       <x:c r="L15" s="3"/>
       <x:c r="M15" s="3"/>
       <x:c r="N15" s="3"/>
@@ -1795,38 +1858,28 @@
     </x:row>
     <x:row r="16" spans="1:15">
       <x:c r="A16" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="18" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G16" s="18" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="H16" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I16" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J16" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K16" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G16" s="50"/>
+      <x:c r="H16" s="50"/>
+      <x:c r="I16" s="50"/>
+      <x:c r="J16" s="50"/>
+      <x:c r="K16" s="51"/>
       <x:c r="L16" s="3"/>
       <x:c r="M16" s="3"/>
       <x:c r="N16" s="3"/>
@@ -1834,38 +1887,28 @@
     </x:row>
     <x:row r="17" spans="1:15">
       <x:c r="A17" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B17" s="18" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G17" s="18" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H17" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I17" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J17" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K17" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G17" s="50"/>
+      <x:c r="H17" s="50"/>
+      <x:c r="I17" s="50"/>
+      <x:c r="J17" s="50"/>
+      <x:c r="K17" s="51"/>
       <x:c r="L17" s="3"/>
       <x:c r="M17" s="3"/>
       <x:c r="N17" s="3"/>
@@ -1873,38 +1916,28 @@
     </x:row>
     <x:row r="18" spans="1:15">
       <x:c r="A18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="18" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G18" s="18" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H18" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I18" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J18" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K18" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G18" s="50"/>
+      <x:c r="H18" s="50"/>
+      <x:c r="I18" s="50"/>
+      <x:c r="J18" s="50"/>
+      <x:c r="K18" s="51"/>
       <x:c r="L18" s="3"/>
       <x:c r="M18" s="3"/>
       <x:c r="N18" s="3"/>
@@ -1912,38 +1945,28 @@
     </x:row>
     <x:row r="19" spans="1:15">
       <x:c r="A19" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B19" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G19" s="18" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H19" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I19" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J19" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K19" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G19" s="50"/>
+      <x:c r="H19" s="50"/>
+      <x:c r="I19" s="50"/>
+      <x:c r="J19" s="50"/>
+      <x:c r="K19" s="51"/>
       <x:c r="L19" s="3"/>
       <x:c r="M19" s="3"/>
       <x:c r="N19" s="3"/>
@@ -1951,7 +1974,7 @@
     </x:row>
     <x:row r="20" spans="1:15">
       <x:c r="A20" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B20" s="18" t="s">
         <x:v>46</x:v>
@@ -1960,29 +1983,19 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F20" s="29" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G20" s="18" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H20" s="19" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I20" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J20" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K20" s="29" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G20" s="50"/>
+      <x:c r="H20" s="47"/>
+      <x:c r="I20" s="16"/>
+      <x:c r="J20" s="16"/>
+      <x:c r="K20" s="29"/>
       <x:c r="L20" s="3"/>
       <x:c r="M20" s="3"/>
       <x:c r="N20" s="3"/>
@@ -1990,7 +2003,7 @@
     </x:row>
     <x:row r="21" spans="1:15">
       <x:c r="A21" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B21" s="18" t="s">
         <x:v>59</x:v>
@@ -2001,15 +2014,11 @@
       <x:c r="D21" s="34"/>
       <x:c r="E21" s="34"/>
       <x:c r="F21" s="35"/>
-      <x:c r="G21" s="18" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H21" s="34" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="I21" s="34"/>
-      <x:c r="J21" s="34"/>
-      <x:c r="K21" s="35"/>
+      <x:c r="G21" s="50"/>
+      <x:c r="H21" s="42"/>
+      <x:c r="I21" s="42"/>
+      <x:c r="J21" s="42"/>
+      <x:c r="K21" s="52"/>
       <x:c r="L21" s="3"/>
       <x:c r="M21" s="3"/>
       <x:c r="N21" s="3"/>
@@ -2017,7 +2026,7 @@
     </x:row>
     <x:row r="22" spans="1:15">
       <x:c r="A22" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B22" s="18" t="s">
         <x:v>42</x:v>
@@ -2026,29 +2035,19 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D22" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F22" s="29" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G22" s="18" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H22" s="19" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I22" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J22" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K22" s="29" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G22" s="50"/>
+      <x:c r="H22" s="47"/>
+      <x:c r="I22" s="16"/>
+      <x:c r="J22" s="16"/>
+      <x:c r="K22" s="29"/>
       <x:c r="L22" s="3"/>
       <x:c r="M22" s="3"/>
       <x:c r="N22" s="3"/>
@@ -2056,7 +2055,7 @@
     </x:row>
     <x:row r="23" spans="1:15">
       <x:c r="A23" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B23" s="22" t="s">
         <x:v>64</x:v>
@@ -2065,29 +2064,19 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D23" s="24" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E23" s="24" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="30" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G23" s="22" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H23" s="23" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I23" s="24" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J23" s="24" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K23" s="30" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G23" s="53"/>
+      <x:c r="H23" s="54"/>
+      <x:c r="I23" s="24"/>
+      <x:c r="J23" s="24"/>
+      <x:c r="K23" s="30"/>
       <x:c r="L23" s="3"/>
       <x:c r="M23" s="3"/>
       <x:c r="N23" s="3"/>
@@ -2095,7 +2084,7 @@
     </x:row>
     <x:row r="24" spans="1:15">
       <x:c r="A24" s="36" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B24" s="37"/>
       <x:c r="C24" s="37"/>
@@ -2120,16 +2109,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C25" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D25" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E25" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G25" s="17" t="s">
         <x:v>40</x:v>
@@ -2138,13 +2127,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I25" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J25" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K25" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L25" s="3"/>
       <x:c r="M25" s="4"/>
@@ -2159,31 +2148,31 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E26" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G26" s="18" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="H26" s="20" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I26" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J26" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K26" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L26" s="4"/>
       <x:c r="M26" s="4"/>
@@ -2192,22 +2181,22 @@
     </x:row>
     <x:row r="27" spans="1:15">
       <x:c r="A27" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B27" s="18" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E27" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F27" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G27" s="18" t="s">
         <x:v>55</x:v>
@@ -2216,13 +2205,13 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I27" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J27" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K27" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L27" s="4"/>
       <x:c r="M27" s="4"/>
@@ -2231,22 +2220,22 @@
     </x:row>
     <x:row r="28" spans="1:15">
       <x:c r="A28" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="18" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E28" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F28" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G28" s="18" t="s">
         <x:v>46</x:v>
@@ -2255,13 +2244,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I28" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J28" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K28" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L28" s="4"/>
       <x:c r="M28" s="4"/>
@@ -2270,22 +2259,22 @@
     </x:row>
     <x:row r="29" spans="1:15">
       <x:c r="A29" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B29" s="18" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E29" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F29" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G29" s="18" t="s">
         <x:v>59</x:v>
@@ -2303,22 +2292,22 @@
     </x:row>
     <x:row r="30" spans="1:15">
       <x:c r="A30" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B30" s="18" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D30" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E30" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F30" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G30" s="18" t="s">
         <x:v>42</x:v>
@@ -2327,13 +2316,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I30" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J30" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K30" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L30" s="4"/>
       <x:c r="M30" s="4"/>
@@ -2342,22 +2331,22 @@
     </x:row>
     <x:row r="31" spans="1:15">
       <x:c r="A31" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B31" s="18" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D31" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E31" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F31" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G31" s="18" t="s">
         <x:v>64</x:v>
@@ -2366,13 +2355,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I31" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J31" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K31" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L31" s="4"/>
       <x:c r="M31" s="4"/>
@@ -2417,7 +2406,7 @@
     </x:row>
     <x:row r="34" spans="1:15" ht="16.75">
       <x:c r="A34" s="39" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B34" s="40"/>
       <x:c r="C34" s="40"/>
@@ -2436,7 +2425,7 @@
     </x:row>
     <x:row r="35" spans="1:15">
       <x:c r="A35" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B35" s="9" t="s">
         <x:v>45</x:v>
@@ -2477,7 +2466,7 @@
     </x:row>
     <x:row r="36" spans="1:15">
       <x:c r="A36" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
         <x:v>44</x:v>
@@ -2494,12 +2483,12 @@
       <x:c r="F36" s="11" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G36" s="3"/>
-      <x:c r="H36" s="3"/>
-      <x:c r="I36" s="3"/>
-      <x:c r="J36" s="3"/>
-      <x:c r="K36" s="3"/>
-      <x:c r="L36" s="3"/>
+      <x:c r="G36" s="50"/>
+      <x:c r="H36" s="50"/>
+      <x:c r="I36" s="50"/>
+      <x:c r="J36" s="50"/>
+      <x:c r="K36" s="50"/>
+      <x:c r="L36" s="50"/>
       <x:c r="M36" s="3"/>
       <x:c r="N36" s="3"/>
       <x:c r="O36" s="3"/>
@@ -2512,42 +2501,30 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D37" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E37" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F37" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G37" s="18" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H37" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I37" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J37" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K37" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L37" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G37" s="50"/>
+      <x:c r="H37" s="50"/>
+      <x:c r="I37" s="50"/>
+      <x:c r="J37" s="50"/>
+      <x:c r="K37" s="51"/>
+      <x:c r="L37" s="50"/>
       <x:c r="M37" s="3"/>
       <x:c r="N37" s="3"/>
       <x:c r="O37" s="3"/>
     </x:row>
     <x:row r="38" spans="1:15">
       <x:c r="A38" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B38" s="18" t="s">
         <x:v>57</x:v>
@@ -2558,31 +2535,19 @@
       <x:c r="D38" s="3"/>
       <x:c r="E38" s="3"/>
       <x:c r="F38" s="11"/>
-      <x:c r="G38" s="18" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H38" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="I38" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J38" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K38" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L38" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="G38" s="50"/>
+      <x:c r="H38" s="50"/>
+      <x:c r="I38" s="50"/>
+      <x:c r="J38" s="50"/>
+      <x:c r="K38" s="51"/>
+      <x:c r="L38" s="50"/>
       <x:c r="M38" s="3"/>
       <x:c r="N38" s="3"/>
       <x:c r="O38" s="3"/>
     </x:row>
     <x:row r="39" spans="1:15">
       <x:c r="A39" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B39" s="18" t="s">
         <x:v>53</x:v>
@@ -2593,24 +2558,12 @@
       <x:c r="D39" s="3"/>
       <x:c r="E39" s="3"/>
       <x:c r="F39" s="11"/>
-      <x:c r="G39" s="18" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H39" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="I39" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J39" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K39" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L39" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="G39" s="50"/>
+      <x:c r="H39" s="50"/>
+      <x:c r="I39" s="50"/>
+      <x:c r="J39" s="50"/>
+      <x:c r="K39" s="51"/>
+      <x:c r="L39" s="50"/>
       <x:c r="M39" s="3"/>
       <x:c r="N39" s="3"/>
       <x:c r="O39" s="3"/>
@@ -2623,64 +2576,40 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D40" s="3"/>
       <x:c r="E40" s="3"/>
       <x:c r="F40" s="11"/>
-      <x:c r="G40" s="18" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H40" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I40" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J40" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K40" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L40" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="G40" s="50"/>
+      <x:c r="H40" s="50"/>
+      <x:c r="I40" s="50"/>
+      <x:c r="J40" s="50"/>
+      <x:c r="K40" s="51"/>
+      <x:c r="L40" s="50"/>
       <x:c r="M40" s="3"/>
       <x:c r="N40" s="3"/>
       <x:c r="O40" s="3"/>
     </x:row>
     <x:row r="41" spans="1:15">
       <x:c r="A41" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B41" s="18" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C41" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D41" s="3"/>
       <x:c r="E41" s="3"/>
       <x:c r="F41" s="11"/>
-      <x:c r="G41" s="18" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H41" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I41" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J41" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K41" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L41" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="G41" s="50"/>
+      <x:c r="H41" s="50"/>
+      <x:c r="I41" s="50"/>
+      <x:c r="J41" s="50"/>
+      <x:c r="K41" s="51"/>
+      <x:c r="L41" s="50"/>
       <x:c r="M41" s="3"/>
       <x:c r="N41" s="3"/>
       <x:c r="O41" s="3"/>
@@ -2698,25 +2627,19 @@
       <x:c r="D42" s="45"/>
       <x:c r="E42" s="45"/>
       <x:c r="F42" s="46"/>
-      <x:c r="G42" s="22" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H42" s="44" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="I42" s="45"/>
-      <x:c r="J42" s="45"/>
-      <x:c r="K42" s="46"/>
-      <x:c r="L42" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="G42" s="53"/>
+      <x:c r="H42" s="55"/>
+      <x:c r="I42" s="56"/>
+      <x:c r="J42" s="56"/>
+      <x:c r="K42" s="57"/>
+      <x:c r="L42" s="50"/>
       <x:c r="M42" s="3"/>
       <x:c r="N42" s="3"/>
       <x:c r="O42" s="3"/>
     </x:row>
     <x:row r="43" spans="1:15">
       <x:c r="A43" s="36" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B43" s="37"/>
       <x:c r="C43" s="37"/>
@@ -2738,26 +2661,26 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B44" s="26" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C44" s="26" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="D44" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E44" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F44" s="28"/>
       <x:c r="G44" s="18" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H44" s="18" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="I44" s="34" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J44" s="34"/>
       <x:c r="K44" s="34"/>
